--- a/Source/GraduateThesisManagement/GraduateThesis.Web/wwwroot/reports/unregistered-student_export.xlsx
+++ b/Source/GraduateThesisManagement/GraduateThesis.Web/wwwroot/reports/unregistered-student_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HUFI_GRADUATE-THESIS\HUFI_graduate-thesis-management\Source\GraduateThesisManagement\GraduateThesis.Web\wwwroot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE3AE95-4B76-4ECE-A3AB-BB03FB966F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC59AA7-4122-46AE-BCFC-8647A936CFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9618D36F-91D3-4472-B248-079CF11FD3FC}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t>{{Items.Email}}</t>
   </si>
   <si>
-    <t>DANH SÁCH SINH VIÊN CHƯA ĐĂNG KÝ KHÓA LUẬN CỦA KHOA CÔNG NGHỆ THÔNG TIN</t>
+    <t>{{Name}}</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
